--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1402,28 +1402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.92022144522736</v>
+        <v>83.73498397710586</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.2490022411605</v>
+        <v>114.5698992042047</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.68558869395571</v>
+        <v>103.6355088240484</v>
       </c>
       <c r="AD2" t="n">
-        <v>57920.22144522735</v>
+        <v>83734.98397710586</v>
       </c>
       <c r="AE2" t="n">
-        <v>79249.0022411605</v>
+        <v>114569.8992042047</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.297165502418422e-06</v>
+        <v>9.078399415282327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.826388888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>71685.58869395571</v>
+        <v>103635.5088240484</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.81846858244488</v>
+        <v>81.985398392882</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.74153536839643</v>
+        <v>112.1760390216023</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.3219923437847</v>
+        <v>101.470115297469</v>
       </c>
       <c r="AD2" t="n">
-        <v>56818.46858244488</v>
+        <v>81985.39839288201</v>
       </c>
       <c r="AE2" t="n">
-        <v>77741.53536839642</v>
+        <v>112176.0390216023</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.359925046468735e-06</v>
+        <v>9.310691014309686e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.942129629629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>70321.9923437847</v>
+        <v>101470.115297469</v>
       </c>
     </row>
   </sheetData>
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.64654120111042</v>
+        <v>95.86315605780911</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.39820261052517</v>
+        <v>131.1641993022043</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.91177765965497</v>
+        <v>118.6460722109467</v>
       </c>
       <c r="AD2" t="n">
-        <v>72646.54120111042</v>
+        <v>95863.1560578091</v>
       </c>
       <c r="AE2" t="n">
-        <v>99398.20261052517</v>
+        <v>131164.1993022042</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.744352869090694e-06</v>
+        <v>8.88722293070316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.105324074074075</v>
       </c>
       <c r="AH2" t="n">
-        <v>89911.77765965497</v>
+        <v>118646.0722109467</v>
       </c>
     </row>
   </sheetData>
@@ -2293,28 +2293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.12787292679276</v>
+        <v>88.02167726143396</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.74258486048916</v>
+        <v>120.4351420713801</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.36855570891642</v>
+        <v>108.9409811439025</v>
       </c>
       <c r="AD2" t="n">
-        <v>64127.87292679276</v>
+        <v>88021.67726143397</v>
       </c>
       <c r="AE2" t="n">
-        <v>87742.58486048917</v>
+        <v>120435.1420713801</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.16623247851036e-06</v>
+        <v>9.318989952768019e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.445601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>79368.55570891642</v>
+        <v>108940.9811439025</v>
       </c>
     </row>
   </sheetData>
@@ -2590,28 +2590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.49765084828705</v>
+        <v>105.1741752682613</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.8769254300706</v>
+        <v>143.9039465591152</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.1041100908135</v>
+        <v>130.1699558700096</v>
       </c>
       <c r="AD2" t="n">
-        <v>82497.65084828706</v>
+        <v>105174.1752682613</v>
       </c>
       <c r="AE2" t="n">
-        <v>112876.9254300706</v>
+        <v>143903.9465591152</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.146026966201552e-06</v>
+        <v>8.133233818060364e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>102104.1100908135</v>
+        <v>130169.9558700096</v>
       </c>
     </row>
   </sheetData>
@@ -2887,28 +2887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.78655957857937</v>
+        <v>82.12376668132839</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.69787606158174</v>
+        <v>112.3653606182326</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.28249981993618</v>
+        <v>101.6413683066315</v>
       </c>
       <c r="AD2" t="n">
-        <v>56786.55957857937</v>
+        <v>82123.76668132839</v>
       </c>
       <c r="AE2" t="n">
-        <v>77697.87606158174</v>
+        <v>112365.3606182326</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.409938891690638e-06</v>
+        <v>9.344962022937011e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.861111111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>70282.49981993617</v>
+        <v>101641.3683066315</v>
       </c>
     </row>
   </sheetData>
@@ -3184,28 +3184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.16190853516171</v>
+        <v>122.168036731237</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.5222803360043</v>
+        <v>167.1556975290023</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.4015574408139</v>
+        <v>151.2025923613756</v>
       </c>
       <c r="AD2" t="n">
-        <v>85161.90853516171</v>
+        <v>122168.0367312369</v>
       </c>
       <c r="AE2" t="n">
-        <v>116522.2803360043</v>
+        <v>167155.6975290023</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.671484944653387e-06</v>
+        <v>7.484816202300906e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.980324074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>105401.5574408139</v>
+        <v>151202.5923613756</v>
       </c>
     </row>
   </sheetData>
@@ -3481,28 +3481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.31300390320172</v>
+        <v>80.77951905569834</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.99588922981403</v>
+        <v>110.5261017128268</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.59768506474794</v>
+        <v>99.97764568974092</v>
       </c>
       <c r="AD2" t="n">
-        <v>64313.00390320172</v>
+        <v>80779.51905569834</v>
       </c>
       <c r="AE2" t="n">
-        <v>87995.88922981403</v>
+        <v>110526.1017128268</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.372617916894731e-06</v>
+        <v>9.46233836180653e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.081018518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>79597.68506474793</v>
+        <v>99977.64568974092</v>
       </c>
     </row>
   </sheetData>
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.38004046524955</v>
+        <v>81.37021797561768</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.14165867636662</v>
+        <v>111.3343220348571</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.7793670413098</v>
+        <v>100.7087305985813</v>
       </c>
       <c r="AD2" t="n">
-        <v>56380.04046524955</v>
+        <v>81370.21797561768</v>
       </c>
       <c r="AE2" t="n">
-        <v>77141.65867636661</v>
+        <v>111334.3220348571</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.402838460028901e-06</v>
+        <v>9.415005658710985e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.959490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>69779.3670413098</v>
+        <v>100708.7305985813</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.56046710108033</v>
+        <v>83.22111187149591</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.75677047625727</v>
+        <v>113.8667967188722</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.24033483784305</v>
+        <v>102.9995094531053</v>
       </c>
       <c r="AD2" t="n">
-        <v>57560.46710108033</v>
+        <v>83221.1118714959</v>
       </c>
       <c r="AE2" t="n">
-        <v>78756.77047625727</v>
+        <v>113866.7967188722</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.337817573636851e-06</v>
+        <v>9.169380217798882e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.832175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>71240.33483784305</v>
+        <v>102999.5094531053</v>
       </c>
     </row>
   </sheetData>
@@ -4372,28 +4372,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.14472853901631</v>
+        <v>88.26156403802059</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.76564745275056</v>
+        <v>120.7633657421634</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.38941723974094</v>
+        <v>109.2378796082112</v>
       </c>
       <c r="AD2" t="n">
-        <v>64144.72853901632</v>
+        <v>88261.56403802059</v>
       </c>
       <c r="AE2" t="n">
-        <v>87765.64745275056</v>
+        <v>120763.3657421634</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.250220375136935e-06</v>
+        <v>9.385859771670024e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.300925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>79389.41723974094</v>
+        <v>109237.8796082112</v>
       </c>
     </row>
   </sheetData>
@@ -4669,28 +4669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.43177782827685</v>
+        <v>88.00635380451783</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.1584009540375</v>
+        <v>120.4141758416042</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.74468689809819</v>
+        <v>108.9220159016702</v>
       </c>
       <c r="AD2" t="n">
-        <v>64431.77782827686</v>
+        <v>88006.35380451783</v>
       </c>
       <c r="AE2" t="n">
-        <v>88158.4009540375</v>
+        <v>120414.1758416042</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.916111468116931e-06</v>
+        <v>9.073816730246243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>79744.6868980982</v>
+        <v>108922.0159016702</v>
       </c>
     </row>
   </sheetData>
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.43731479028949</v>
+        <v>96.52743591513502</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.480173921708</v>
+        <v>132.0730963089562</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.8904871474551</v>
+        <v>119.4682253630194</v>
       </c>
       <c r="AD2" t="n">
-        <v>73437.31479028949</v>
+        <v>96527.43591513502</v>
       </c>
       <c r="AE2" t="n">
-        <v>100480.173921708</v>
+        <v>132073.0963089562</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.485166034505774e-06</v>
+        <v>8.570463732010136e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>90890.4871474551</v>
+        <v>119468.2253630194</v>
       </c>
     </row>
   </sheetData>
@@ -7508,28 +7508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.1816245454098</v>
+        <v>141.6404053412328</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.9141389887487</v>
+        <v>193.7986513214589</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.1791755484641</v>
+        <v>175.3027800375091</v>
       </c>
       <c r="AD2" t="n">
-        <v>105181.6245454098</v>
+        <v>141640.4053412328</v>
       </c>
       <c r="AE2" t="n">
-        <v>143914.1389887487</v>
+        <v>193798.6513214589</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.009642751483909e-06</v>
+        <v>6.534419094333198e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.560185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>130179.1755484641</v>
+        <v>175302.780037509</v>
       </c>
     </row>
   </sheetData>
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.70967710993899</v>
+        <v>81.30415789693221</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.53863501125849</v>
+        <v>111.2439357208347</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.08863195055997</v>
+        <v>100.6269706275112</v>
       </c>
       <c r="AD2" t="n">
-        <v>64709.677109939</v>
+        <v>81304.15789693221</v>
       </c>
       <c r="AE2" t="n">
-        <v>88538.63501125849</v>
+        <v>111243.9357208347</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.357078858262487e-06</v>
+        <v>9.391826279596631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.04050925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>80088.63195055997</v>
+        <v>100626.9706275112</v>
       </c>
     </row>
   </sheetData>
@@ -8102,28 +8102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.39156249616033</v>
+        <v>82.89317016370829</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.52566774426057</v>
+        <v>113.4180924065103</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.0312882262333</v>
+        <v>102.5936288505547</v>
       </c>
       <c r="AD2" t="n">
-        <v>57391.56249616033</v>
+        <v>82893.17016370829</v>
       </c>
       <c r="AE2" t="n">
-        <v>78525.66774426057</v>
+        <v>113418.0924065103</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.330750387328666e-06</v>
+        <v>9.193319558158806e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.878472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>71031.2882262333</v>
+        <v>102593.6288505547</v>
       </c>
     </row>
   </sheetData>
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.7295975813545</v>
+        <v>188.45390451861</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.8159557286202</v>
+        <v>257.8509461617388</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.7001873223013</v>
+        <v>233.2420137562135</v>
       </c>
       <c r="AD2" t="n">
-        <v>138729.5975813545</v>
+        <v>188453.90451861</v>
       </c>
       <c r="AE2" t="n">
-        <v>189815.9557286202</v>
+        <v>257850.9461617388</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.054512258354413e-06</v>
+        <v>5.091689949763292e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.99189814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>171700.1873223013</v>
+        <v>233242.0137562135</v>
       </c>
     </row>
   </sheetData>
@@ -8696,28 +8696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.2125696870516</v>
+        <v>88.04019261449888</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.85847070443259</v>
+        <v>120.4604755942832</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.47338157056075</v>
+        <v>108.9638968709356</v>
       </c>
       <c r="AD2" t="n">
-        <v>64212.5696870516</v>
+        <v>88040.19261449888</v>
       </c>
       <c r="AE2" t="n">
-        <v>87858.47070443259</v>
+        <v>120460.4755942832</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.055566047377287e-06</v>
+        <v>9.216006065777457e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.619212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>79473.38157056074</v>
+        <v>108963.8968709356</v>
       </c>
     </row>
   </sheetData>
@@ -8993,28 +8993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.16457521119696</v>
+        <v>80.49710702581015</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.79280254520148</v>
+        <v>110.1396931143945</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.41398068828077</v>
+        <v>99.62811538561505</v>
       </c>
       <c r="AD2" t="n">
-        <v>64164.57521119696</v>
+        <v>80497.10702581015</v>
       </c>
       <c r="AE2" t="n">
-        <v>87792.80254520148</v>
+        <v>110139.6931143945</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.324614477734119e-06</v>
+        <v>9.442084589371535e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.179398148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>79413.98068828078</v>
+        <v>99628.11538561505</v>
       </c>
     </row>
   </sheetData>
